--- a/TP1/tablas.xlsx
+++ b/TP1/tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\ss\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35F5E7F-B632-4BA5-80B6-5147D66A11FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FC4A29-D36A-4F78-812C-D9D9534E3A80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7DD0576B-60ED-4238-8FAE-14FF9B66B2D8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>BF</t>
   </si>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,10 +107,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -428,9 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D9BBB-8EFD-4A7F-A7BC-4611508084D6}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -767,7 +769,7 @@
         <v>5000</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" ref="B15:G15" si="9">B7/1000000000</f>
+        <f t="shared" ref="B15:F15" si="9">B7/1000000000</f>
         <v>3.907851006</v>
       </c>
       <c r="C15" s="8">
@@ -949,6 +951,166 @@
       </c>
       <c r="G24" s="3">
         <v>4002863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
+        <f>B28*B28</f>
+        <v>9</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" ref="C29:F29" si="14">C28*C28</f>
+        <v>25</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10">
+        <v>573440</v>
+      </c>
+      <c r="C30" s="10">
+        <v>689737</v>
+      </c>
+      <c r="D30" s="10">
+        <v>593676</v>
+      </c>
+      <c r="E30" s="10">
+        <v>730209</v>
+      </c>
+      <c r="F30" s="11">
+        <v>666331</v>
+      </c>
+      <c r="G30" s="3">
+        <v>263070</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>5</v>
+      </c>
+      <c r="B31" s="10">
+        <v>480061</v>
+      </c>
+      <c r="C31" s="10">
+        <v>460800</v>
+      </c>
+      <c r="D31" s="10">
+        <v>547108</v>
+      </c>
+      <c r="E31" s="10">
+        <v>553935</v>
+      </c>
+      <c r="F31" s="10">
+        <v>583192</v>
+      </c>
+      <c r="G31" s="3">
+        <v>425204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>10</v>
+      </c>
+      <c r="B32" s="10">
+        <v>534187</v>
+      </c>
+      <c r="C32" s="11">
+        <v>525165</v>
+      </c>
+      <c r="D32" s="10">
+        <v>571002</v>
+      </c>
+      <c r="E32" s="10">
+        <v>559543</v>
+      </c>
+      <c r="F32" s="10">
+        <v>557836</v>
+      </c>
+      <c r="G32" s="3">
+        <v>511756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>15</v>
+      </c>
+      <c r="B33" s="10">
+        <v>638781</v>
+      </c>
+      <c r="C33" s="11">
+        <v>576853</v>
+      </c>
+      <c r="D33" s="11">
+        <v>537600</v>
+      </c>
+      <c r="E33" s="10">
+        <v>577828</v>
+      </c>
+      <c r="F33" s="11">
+        <v>564662</v>
+      </c>
+      <c r="G33" s="3">
+        <v>584899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>20</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2634117</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2534399</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2595595</v>
+      </c>
+      <c r="E34" s="10">
+        <v>629760</v>
+      </c>
+      <c r="F34" s="11">
+        <v>687542</v>
+      </c>
+      <c r="G34" s="3">
+        <v>739962</v>
       </c>
     </row>
   </sheetData>
